--- a/vodafone-selenium-form/excelVodafoneOutPut.xlsx
+++ b/vodafone-selenium-form/excelVodafoneOutPut.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
   <si>
     <t xml:space="preserve">informazioni</t>
   </si>
@@ -143,15 +143,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>00118909</t>
-  </si>
-  <si>
-    <t>00118910</t>
-  </si>
-  <si>
-    <t>00118911</t>
   </si>
 </sst>
 </file>
@@ -436,7 +427,7 @@
         <v>34</v>
       </c>
       <c r="S3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -495,7 +486,7 @@
         <v>34</v>
       </c>
       <c r="S4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -554,7 +545,7 @@
         <v>34</v>
       </c>
       <c r="S5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/vodafone-selenium-form/excelVodafoneOutPut.xlsx
+++ b/vodafone-selenium-form/excelVodafoneOutPut.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t xml:space="preserve">informazioni</t>
   </si>
@@ -106,12 +106,6 @@
     <t xml:space="preserve">Si</t>
   </si>
   <si>
-    <t xml:space="preserve">333333</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12345</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ticket di test,da non lavorare</t>
   </si>
   <si>
@@ -127,22 +121,10 @@
     <t xml:space="preserve">/home/lisa/vodafone_selenium/vodafone-selenium-form/src/main/resources/fileUpload</t>
   </si>
   <si>
-    <t xml:space="preserve">DWDM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIRCUITO DOWN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">08:00-12:00 13:00-16:30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SDH/WDM - Punto Punto</t>
-  </si>
-  <si>
     <t/>
+  </si>
+  <si>
+    <t>0.8338886497182814</t>
   </si>
 </sst>
 </file>
@@ -272,15 +254,15 @@
   <dimension ref="A1:S1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="2" customWidth="true" hidden="false" style="1" width="23.48" collapsed="true" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="39.62" collapsed="true" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="1" width="39.61" collapsed="true" outlineLevel="0"/>
     <col min="4" max="17" customWidth="true" hidden="false" style="1" width="23.48" collapsed="true" outlineLevel="0"/>
-    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="49.34" collapsed="true" outlineLevel="0"/>
+    <col min="18" max="18" customWidth="true" hidden="false" style="1" width="49.33" collapsed="true" outlineLevel="0"/>
     <col min="19" max="1025" customWidth="true" hidden="false" style="1" width="23.48" collapsed="true" outlineLevel="0"/>
   </cols>
   <sheetData>
@@ -390,170 +372,46 @@
       <c r="F3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="3" t="n">
+        <v>123</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>1234</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="J3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="n">
+        <v>3333333333</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>3333333333</v>
+      </c>
+      <c r="R3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" t="s">
         <v>34</v>
       </c>
-      <c r="S3" t="s">
-        <v>40</v>
-      </c>
     </row>
-    <row r="4" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="S5" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -563,12 +421,8 @@
     <mergeCell ref="J1:Q1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L3" r:id="rId19" display="pao.vi@gmail.com"/>
-    <hyperlink ref="P3" r:id="rId20" display="pao.vi@gmail.com"/>
-    <hyperlink ref="L4" r:id="rId21" display="pao.vi@gmail.com"/>
-    <hyperlink ref="P4" r:id="rId22" display="pao.vi@gmail.com"/>
-    <hyperlink ref="L5" r:id="rId23" display="pao.vi@gmail.com"/>
-    <hyperlink ref="P5" r:id="rId24" display="pao.vi@gmail.com"/>
+    <hyperlink ref="L3" r:id="rId3" display="pao.vi@gmail.com"/>
+    <hyperlink ref="P3" r:id="rId4" display="pao.vi@gmail.com"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/vodafone-selenium-form/excelVodafoneOutPut.xlsx
+++ b/vodafone-selenium-form/excelVodafoneOutPut.xlsx
@@ -124,7 +124,7 @@
     <t/>
   </si>
   <si>
-    <t>0.8338886497182814</t>
+    <t>0.6477968493116476</t>
   </si>
 </sst>
 </file>
